--- a/biology/Médecine/Triquétrum/Triquétrum.xlsx
+++ b/biology/Médecine/Triquétrum/Triquétrum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Triqu%C3%A9trum</t>
+          <t>Triquétrum</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Os pyramidal
 Le triquétrum (ou os pyramidal dans l'ancienne nomenclature) est l'os le plus médial de la première rangée du carpe.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Triqu%C3%A9trum</t>
+          <t>Triquétrum</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le triquétrum a une forme globale pyramidale à sommet antéro-interne. Il est situé médialement au lunatum.
 Il présente :
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Triqu%C3%A9trum</t>
+          <t>Triquétrum</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,9 +563,11 @@
           <t>Embryologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le triquétrum s'ossifie entre 9 mois et 50 mois (4 ans et 2 mois)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le triquétrum s'ossifie entre 9 mois et 50 mois (4 ans et 2 mois).
 </t>
         </is>
       </c>
